--- a/data/pca/factorExposure/factorExposure_2011-08-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02040719648431782</v>
+        <v>0.01754226709508732</v>
       </c>
       <c r="C2">
-        <v>-0.01276814625207804</v>
+        <v>0.005745007075475268</v>
       </c>
       <c r="D2">
-        <v>-0.04052975475191332</v>
+        <v>0.02980846397525791</v>
       </c>
       <c r="E2">
-        <v>0.06778533753415331</v>
+        <v>0.03921896821950396</v>
       </c>
       <c r="F2">
-        <v>0.0007753400102714303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01964478800437843</v>
+      </c>
+      <c r="G2">
+        <v>-0.01259401685006452</v>
+      </c>
+      <c r="H2">
+        <v>0.01640091569435005</v>
+      </c>
+      <c r="I2">
+        <v>-0.01302052262685089</v>
+      </c>
+      <c r="J2">
+        <v>-0.03446230537576817</v>
+      </c>
+      <c r="K2">
+        <v>-0.06205189027840392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.07765132850584679</v>
+        <v>0.09352085813740661</v>
       </c>
       <c r="C4">
-        <v>-0.04375368529514088</v>
+        <v>0.05025090193824885</v>
       </c>
       <c r="D4">
-        <v>-0.05369034786535942</v>
+        <v>0.03134922440367347</v>
       </c>
       <c r="E4">
-        <v>0.01827465319720203</v>
+        <v>0.03243043704498725</v>
       </c>
       <c r="F4">
-        <v>0.02093732406071567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07609610313453798</v>
+      </c>
+      <c r="G4">
+        <v>-0.03487351717164765</v>
+      </c>
+      <c r="H4">
+        <v>0.01736854553346887</v>
+      </c>
+      <c r="I4">
+        <v>0.08014153668299689</v>
+      </c>
+      <c r="J4">
+        <v>0.004444647836462582</v>
+      </c>
+      <c r="K4">
+        <v>0.04520605548340438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1256375866894264</v>
+        <v>0.1331744892584318</v>
       </c>
       <c r="C6">
-        <v>-0.005714917095719119</v>
+        <v>0.0154416764075283</v>
       </c>
       <c r="D6">
-        <v>-0.06087379335870925</v>
+        <v>0.0647800645927602</v>
       </c>
       <c r="E6">
-        <v>0.07556975589691595</v>
+        <v>0.0221812880365946</v>
       </c>
       <c r="F6">
-        <v>0.04883735199628882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.05246393259297116</v>
+      </c>
+      <c r="G6">
+        <v>-0.07285025222898053</v>
+      </c>
+      <c r="H6">
+        <v>-0.1541314372942222</v>
+      </c>
+      <c r="I6">
+        <v>0.1174665256780463</v>
+      </c>
+      <c r="J6">
+        <v>0.4449804033351429</v>
+      </c>
+      <c r="K6">
+        <v>-0.007411366300760202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07238669727070721</v>
+        <v>0.07112521997938914</v>
       </c>
       <c r="C7">
-        <v>-0.0150592898435193</v>
+        <v>0.05206366930289088</v>
       </c>
       <c r="D7">
-        <v>-0.06196086763855509</v>
+        <v>0.04841861108324508</v>
       </c>
       <c r="E7">
-        <v>0.05813200859645493</v>
+        <v>0.03380818354046514</v>
       </c>
       <c r="F7">
-        <v>-0.009133617791772467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03867445811313248</v>
+      </c>
+      <c r="G7">
+        <v>0.01738855235459208</v>
+      </c>
+      <c r="H7">
+        <v>0.001888402278974828</v>
+      </c>
+      <c r="I7">
+        <v>0.02751656173539289</v>
+      </c>
+      <c r="J7">
+        <v>-0.0752179339541356</v>
+      </c>
+      <c r="K7">
+        <v>0.07388973221327906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.03627595139496695</v>
+        <v>0.04007328453412157</v>
       </c>
       <c r="C8">
-        <v>-0.04590690034071396</v>
+        <v>0.02055448265124401</v>
       </c>
       <c r="D8">
-        <v>0.009437967948902113</v>
+        <v>-0.008366886017437094</v>
       </c>
       <c r="E8">
-        <v>0.06055439025384492</v>
+        <v>0.06793253185164379</v>
       </c>
       <c r="F8">
-        <v>0.04295871277218763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0302038777067578</v>
+      </c>
+      <c r="G8">
+        <v>-0.05825852026225364</v>
+      </c>
+      <c r="H8">
+        <v>-0.008264778518361229</v>
+      </c>
+      <c r="I8">
+        <v>0.1059658826789221</v>
+      </c>
+      <c r="J8">
+        <v>-0.01266729735359754</v>
+      </c>
+      <c r="K8">
+        <v>0.03429219995098556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07795390074055095</v>
+        <v>0.08584411693721718</v>
       </c>
       <c r="C9">
-        <v>-0.05398347191886504</v>
+        <v>0.05308209511771713</v>
       </c>
       <c r="D9">
-        <v>-0.0477743612937469</v>
+        <v>0.03001071220130735</v>
       </c>
       <c r="E9">
-        <v>0.02240451715803815</v>
+        <v>0.02355848143971674</v>
       </c>
       <c r="F9">
-        <v>0.015851924154585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.06072583217699197</v>
+      </c>
+      <c r="G9">
+        <v>-0.04448484642719713</v>
+      </c>
+      <c r="H9">
+        <v>0.01707153360867613</v>
+      </c>
+      <c r="I9">
+        <v>0.08958226619464491</v>
+      </c>
+      <c r="J9">
+        <v>-0.00188988429678522</v>
+      </c>
+      <c r="K9">
+        <v>0.02312056101223792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02031206043157791</v>
+        <v>0.07357376837413487</v>
       </c>
       <c r="C10">
-        <v>0.1599270775258335</v>
+        <v>-0.1928612919450436</v>
       </c>
       <c r="D10">
-        <v>0.005557743060791412</v>
+        <v>0.008688560912617941</v>
       </c>
       <c r="E10">
-        <v>0.07643749175343012</v>
+        <v>0.05023182757182553</v>
       </c>
       <c r="F10">
-        <v>0.0415777310247929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03425931123122356</v>
+      </c>
+      <c r="G10">
+        <v>0.05176041017356556</v>
+      </c>
+      <c r="H10">
+        <v>-0.02652414455397088</v>
+      </c>
+      <c r="I10">
+        <v>-0.03695545856920828</v>
+      </c>
+      <c r="J10">
+        <v>-0.02047337232191298</v>
+      </c>
+      <c r="K10">
+        <v>-0.01399353500690271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07107018854487925</v>
+        <v>0.07318848682429792</v>
       </c>
       <c r="C11">
-        <v>-0.06290221946498448</v>
+        <v>0.06016717580312847</v>
       </c>
       <c r="D11">
-        <v>-0.03621342227861272</v>
+        <v>0.03021619012271022</v>
       </c>
       <c r="E11">
-        <v>0.03207887891704122</v>
+        <v>0.0182113337353803</v>
       </c>
       <c r="F11">
-        <v>-0.01099416444398919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02354793304170872</v>
+      </c>
+      <c r="G11">
+        <v>-0.06324476260613095</v>
+      </c>
+      <c r="H11">
+        <v>0.0258236861921084</v>
+      </c>
+      <c r="I11">
+        <v>0.05616143814490625</v>
+      </c>
+      <c r="J11">
+        <v>-0.07393601777641107</v>
+      </c>
+      <c r="K11">
+        <v>-0.04482014645031898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.06898235729764446</v>
+        <v>0.07250265067021186</v>
       </c>
       <c r="C12">
-        <v>-0.04606257326574732</v>
+        <v>0.04936150957750519</v>
       </c>
       <c r="D12">
-        <v>-0.04205032948086363</v>
+        <v>0.02122845114337145</v>
       </c>
       <c r="E12">
-        <v>0.02179513409614455</v>
+        <v>0.01120004775006181</v>
       </c>
       <c r="F12">
-        <v>-0.001395898234732124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.03521474454409348</v>
+      </c>
+      <c r="G12">
+        <v>-0.05230900641416428</v>
+      </c>
+      <c r="H12">
+        <v>0.00262208519429626</v>
+      </c>
+      <c r="I12">
+        <v>0.07844536446581281</v>
+      </c>
+      <c r="J12">
+        <v>-0.06808344106576034</v>
+      </c>
+      <c r="K12">
+        <v>-0.02033965121872578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.07820256684760808</v>
+        <v>0.06792403024033776</v>
       </c>
       <c r="C13">
-        <v>-0.02672517700941977</v>
+        <v>0.03457866471002887</v>
       </c>
       <c r="D13">
-        <v>-0.0229160441757396</v>
+        <v>-0.01490697958172318</v>
       </c>
       <c r="E13">
-        <v>0.02097634996414729</v>
+        <v>0.02464334642221667</v>
       </c>
       <c r="F13">
-        <v>0.006420376389567858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02925701381593339</v>
+      </c>
+      <c r="G13">
+        <v>-0.02076174866291102</v>
+      </c>
+      <c r="H13">
+        <v>0.01232210054777017</v>
+      </c>
+      <c r="I13">
+        <v>0.07360976713170039</v>
+      </c>
+      <c r="J13">
+        <v>-0.0385853979602984</v>
+      </c>
+      <c r="K13">
+        <v>0.1019536926021217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03514226372253453</v>
+        <v>0.04451117539132971</v>
       </c>
       <c r="C14">
-        <v>0.01096677843737355</v>
+        <v>0.007502884575882283</v>
       </c>
       <c r="D14">
-        <v>-0.03276211276729492</v>
+        <v>0.0301901335604101</v>
       </c>
       <c r="E14">
-        <v>0.01143423016637927</v>
+        <v>0.004439414420966121</v>
       </c>
       <c r="F14">
-        <v>0.02224869043573855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03672388336383585</v>
+      </c>
+      <c r="G14">
+        <v>-0.02750831807135484</v>
+      </c>
+      <c r="H14">
+        <v>0.04976888679153576</v>
+      </c>
+      <c r="I14">
+        <v>0.05714707847404046</v>
+      </c>
+      <c r="J14">
+        <v>0.007674253777347326</v>
+      </c>
+      <c r="K14">
+        <v>0.0421998676827409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05752251071360803</v>
+        <v>0.0444686641296048</v>
       </c>
       <c r="C15">
-        <v>-0.01443805993390073</v>
+        <v>0.01670927157605129</v>
       </c>
       <c r="D15">
-        <v>-0.01616150867888713</v>
+        <v>-0.01134740695257704</v>
       </c>
       <c r="E15">
-        <v>0.009340415153880021</v>
+        <v>-0.003137262167633661</v>
       </c>
       <c r="F15">
-        <v>0.02955364187628391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03229593178793715</v>
+      </c>
+      <c r="G15">
+        <v>-0.009750596032610352</v>
+      </c>
+      <c r="H15">
+        <v>0.01038161612683047</v>
+      </c>
+      <c r="I15">
+        <v>0.03469797368304108</v>
+      </c>
+      <c r="J15">
+        <v>0.03001644268360477</v>
+      </c>
+      <c r="K15">
+        <v>0.07254998930722115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06185637014261096</v>
+        <v>0.07395806236462256</v>
       </c>
       <c r="C16">
-        <v>-0.06117905736725431</v>
+        <v>0.05984001579212571</v>
       </c>
       <c r="D16">
-        <v>-0.03938676881685486</v>
+        <v>0.0273038608522877</v>
       </c>
       <c r="E16">
-        <v>0.02207222100589103</v>
+        <v>0.01296931163354804</v>
       </c>
       <c r="F16">
-        <v>0.01159756210962079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03965909782689358</v>
+      </c>
+      <c r="G16">
+        <v>-0.04304938823593193</v>
+      </c>
+      <c r="H16">
+        <v>0.02490890700021458</v>
+      </c>
+      <c r="I16">
+        <v>0.05072872137631922</v>
+      </c>
+      <c r="J16">
+        <v>-0.05167878887391848</v>
+      </c>
+      <c r="K16">
+        <v>-0.0265505865654053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06466593634243969</v>
+        <v>0.05956946621703894</v>
       </c>
       <c r="C20">
-        <v>-0.04747350575430583</v>
+        <v>0.03489011783969623</v>
       </c>
       <c r="D20">
-        <v>-0.01792987035024259</v>
+        <v>0.01711682410335244</v>
       </c>
       <c r="E20">
-        <v>0.02715303111472138</v>
+        <v>0.01671398335869221</v>
       </c>
       <c r="F20">
-        <v>0.007913516172909713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.008830326451055286</v>
+      </c>
+      <c r="G20">
+        <v>-0.03703976429481188</v>
+      </c>
+      <c r="H20">
+        <v>0.03371793152843374</v>
+      </c>
+      <c r="I20">
+        <v>0.115681891118086</v>
+      </c>
+      <c r="J20">
+        <v>-0.0385924477252334</v>
+      </c>
+      <c r="K20">
+        <v>0.04356408190800167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03806942152045525</v>
+        <v>0.02917300751474935</v>
       </c>
       <c r="C21">
-        <v>-0.02163563454412011</v>
+        <v>0.02569742508451306</v>
       </c>
       <c r="D21">
-        <v>0.0244469384755984</v>
+        <v>-0.03018991575246543</v>
       </c>
       <c r="E21">
-        <v>0.01299262387419131</v>
+        <v>0.01270317147585419</v>
       </c>
       <c r="F21">
-        <v>0.04786652278445553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01117037814091718</v>
+      </c>
+      <c r="G21">
+        <v>-0.005716097166483162</v>
+      </c>
+      <c r="H21">
+        <v>-0.05426206466829699</v>
+      </c>
+      <c r="I21">
+        <v>0.07410832831651841</v>
+      </c>
+      <c r="J21">
+        <v>0.0417846173474403</v>
+      </c>
+      <c r="K21">
+        <v>0.06996501418291945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1194864016796068</v>
+        <v>0.09102821372222503</v>
       </c>
       <c r="C22">
-        <v>-0.1175639154121457</v>
+        <v>0.08463323328179898</v>
       </c>
       <c r="D22">
-        <v>0.02470406394503329</v>
+        <v>-0.3901667337362635</v>
       </c>
       <c r="E22">
-        <v>-0.006075963123371105</v>
+        <v>0.1220674749793597</v>
       </c>
       <c r="F22">
-        <v>0.3545271992426802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.402993406891306</v>
+      </c>
+      <c r="G22">
+        <v>0.2763175921141764</v>
+      </c>
+      <c r="H22">
+        <v>-0.06055781975035923</v>
+      </c>
+      <c r="I22">
+        <v>-0.2007060359103642</v>
+      </c>
+      <c r="J22">
+        <v>0.04104608557811913</v>
+      </c>
+      <c r="K22">
+        <v>-0.03372090107271383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1205010738466372</v>
+        <v>0.09198000403631228</v>
       </c>
       <c r="C23">
-        <v>-0.1168060667277949</v>
+        <v>0.08493602699718066</v>
       </c>
       <c r="D23">
-        <v>0.02271009111606856</v>
+        <v>-0.3903389637119768</v>
       </c>
       <c r="E23">
-        <v>-0.005058456592344092</v>
+        <v>0.1232878991075673</v>
       </c>
       <c r="F23">
-        <v>0.3572175081805748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.4076197195909752</v>
+      </c>
+      <c r="G23">
+        <v>0.271433075713314</v>
+      </c>
+      <c r="H23">
+        <v>-0.05891287913310504</v>
+      </c>
+      <c r="I23">
+        <v>-0.2009854672323776</v>
+      </c>
+      <c r="J23">
+        <v>0.04691026301954522</v>
+      </c>
+      <c r="K23">
+        <v>-0.0348035673946118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08283872196243248</v>
+        <v>0.08310191222478402</v>
       </c>
       <c r="C24">
-        <v>-0.05845336938690833</v>
+        <v>0.05826061633821401</v>
       </c>
       <c r="D24">
-        <v>-0.03660034338198946</v>
+        <v>0.01830652732595196</v>
       </c>
       <c r="E24">
-        <v>0.03631247820418638</v>
+        <v>0.02395378387526222</v>
       </c>
       <c r="F24">
-        <v>0.02204972513345092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.04363701946013499</v>
+      </c>
+      <c r="G24">
+        <v>-0.06148652657494585</v>
+      </c>
+      <c r="H24">
+        <v>0.006317384256560222</v>
+      </c>
+      <c r="I24">
+        <v>0.067650265124079</v>
+      </c>
+      <c r="J24">
+        <v>-0.05184828606148264</v>
+      </c>
+      <c r="K24">
+        <v>-0.03236693922725823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07863781662973689</v>
+        <v>0.0782308600716356</v>
       </c>
       <c r="C25">
-        <v>-0.04897304129190222</v>
+        <v>0.04424785604148385</v>
       </c>
       <c r="D25">
-        <v>-0.05141062980220665</v>
+        <v>0.03252245487506553</v>
       </c>
       <c r="E25">
-        <v>0.04620127130066548</v>
+        <v>0.01913488144595604</v>
       </c>
       <c r="F25">
-        <v>0.02953894080765121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04850819337043624</v>
+      </c>
+      <c r="G25">
+        <v>-0.05440362106918111</v>
+      </c>
+      <c r="H25">
+        <v>0.02007705723419704</v>
+      </c>
+      <c r="I25">
+        <v>0.08028676184709047</v>
+      </c>
+      <c r="J25">
+        <v>-0.05723058165793258</v>
+      </c>
+      <c r="K25">
+        <v>-0.04807497581720008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05263809087161355</v>
+        <v>0.04617258352157077</v>
       </c>
       <c r="C26">
-        <v>-0.01365656065158714</v>
+        <v>0.02500054981536572</v>
       </c>
       <c r="D26">
-        <v>-0.004380975746401483</v>
+        <v>-0.01450502118641385</v>
       </c>
       <c r="E26">
-        <v>0.03460056601643078</v>
+        <v>0.009285151129514691</v>
       </c>
       <c r="F26">
-        <v>-0.01992823290300405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01689498079154057</v>
+      </c>
+      <c r="G26">
+        <v>-0.02015852027408304</v>
+      </c>
+      <c r="H26">
+        <v>0.02587253292983002</v>
+      </c>
+      <c r="I26">
+        <v>0.03382931559811438</v>
+      </c>
+      <c r="J26">
+        <v>0.01127198940394494</v>
+      </c>
+      <c r="K26">
+        <v>0.1228250831044134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.0518718800746179</v>
+        <v>0.09127701106789401</v>
       </c>
       <c r="C28">
-        <v>0.2961044570501288</v>
+        <v>-0.2942735625447626</v>
       </c>
       <c r="D28">
-        <v>0.01436907716002757</v>
+        <v>-0.01436063879329512</v>
       </c>
       <c r="E28">
-        <v>0.07933327967119093</v>
+        <v>0.03481493473469419</v>
       </c>
       <c r="F28">
-        <v>-0.002486287935197204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.008733049014098255</v>
+      </c>
+      <c r="G28">
+        <v>-0.007137326973151953</v>
+      </c>
+      <c r="H28">
+        <v>-0.04144517119104688</v>
+      </c>
+      <c r="I28">
+        <v>-0.02087808207721311</v>
+      </c>
+      <c r="J28">
+        <v>0.01279554436862134</v>
+      </c>
+      <c r="K28">
+        <v>0.05744007778924974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05648055766416211</v>
+        <v>0.05356757031424346</v>
       </c>
       <c r="C29">
-        <v>0.005711020098482283</v>
+        <v>0.01017342375548732</v>
       </c>
       <c r="D29">
-        <v>-0.02913858914221026</v>
+        <v>0.01614787246372189</v>
       </c>
       <c r="E29">
-        <v>0.02220713437100301</v>
+        <v>0.02135719633377988</v>
       </c>
       <c r="F29">
-        <v>0.03585194777857164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03614951163723054</v>
+      </c>
+      <c r="G29">
+        <v>-0.02635913415588795</v>
+      </c>
+      <c r="H29">
+        <v>0.05984774109241514</v>
+      </c>
+      <c r="I29">
+        <v>0.03914062635587168</v>
+      </c>
+      <c r="J29">
+        <v>0.00808530523163151</v>
+      </c>
+      <c r="K29">
+        <v>0.04099764695078821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1496494146732461</v>
+        <v>0.1282885523164359</v>
       </c>
       <c r="C30">
-        <v>-0.06357443741286785</v>
+        <v>0.05787460512269535</v>
       </c>
       <c r="D30">
-        <v>-0.07110351365704531</v>
+        <v>0.009188316601218834</v>
       </c>
       <c r="E30">
-        <v>0.05555960698803628</v>
+        <v>0.06116199372964422</v>
       </c>
       <c r="F30">
-        <v>0.03504105608827832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1104138097558727</v>
+      </c>
+      <c r="G30">
+        <v>-0.06807117819187426</v>
+      </c>
+      <c r="H30">
+        <v>-0.07694747792574624</v>
+      </c>
+      <c r="I30">
+        <v>0.2469482318141305</v>
+      </c>
+      <c r="J30">
+        <v>-0.1776736419081492</v>
+      </c>
+      <c r="K30">
+        <v>0.2635856683575855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.06028451276918783</v>
+        <v>0.04754914289694841</v>
       </c>
       <c r="C31">
-        <v>-0.0186975995790832</v>
+        <v>0.03973839594786063</v>
       </c>
       <c r="D31">
-        <v>-0.02879102818049975</v>
+        <v>-8.253268053834051e-05</v>
       </c>
       <c r="E31">
-        <v>-0.0006502630648590353</v>
+        <v>-0.005971292779202183</v>
       </c>
       <c r="F31">
-        <v>-0.008020768846664956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02008061622009802</v>
+      </c>
+      <c r="G31">
+        <v>0.003373868481465587</v>
+      </c>
+      <c r="H31">
+        <v>0.05888424861784527</v>
+      </c>
+      <c r="I31">
+        <v>0.04126402584673416</v>
+      </c>
+      <c r="J31">
+        <v>0.01218228522911792</v>
+      </c>
+      <c r="K31">
+        <v>0.0199504043098172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04387492527875049</v>
+        <v>0.04911785846985198</v>
       </c>
       <c r="C32">
-        <v>-0.005713918188586965</v>
+        <v>-0.007207248977200702</v>
       </c>
       <c r="D32">
-        <v>-0.0007722336172896244</v>
+        <v>-0.0340953581894215</v>
       </c>
       <c r="E32">
-        <v>-0.008986044941657684</v>
+        <v>0.01112806409163499</v>
       </c>
       <c r="F32">
-        <v>0.04928726381663917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05726030436352478</v>
+      </c>
+      <c r="G32">
+        <v>0.003291839767796254</v>
+      </c>
+      <c r="H32">
+        <v>-0.001912085593578026</v>
+      </c>
+      <c r="I32">
+        <v>-0.008897960630020916</v>
+      </c>
+      <c r="J32">
+        <v>-0.02433184684601379</v>
+      </c>
+      <c r="K32">
+        <v>0.1288653603675408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1018456011889345</v>
+        <v>0.1056803655362461</v>
       </c>
       <c r="C33">
-        <v>-0.02605320863888451</v>
+        <v>0.04594738999636614</v>
       </c>
       <c r="D33">
-        <v>-0.03904924176323202</v>
+        <v>0.007543798766956793</v>
       </c>
       <c r="E33">
-        <v>0.009272948860942661</v>
+        <v>-0.02001603076935077</v>
       </c>
       <c r="F33">
-        <v>-0.01926264398160708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03496181674783053</v>
+      </c>
+      <c r="G33">
+        <v>-0.02286652138713111</v>
+      </c>
+      <c r="H33">
+        <v>0.03981809827404522</v>
+      </c>
+      <c r="I33">
+        <v>0.06894566827201551</v>
+      </c>
+      <c r="J33">
+        <v>-0.01081564722802925</v>
+      </c>
+      <c r="K33">
+        <v>0.02261988549507796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06396497303153735</v>
+        <v>0.06969732262285859</v>
       </c>
       <c r="C34">
-        <v>-0.06261331469811442</v>
+        <v>0.04950143222981213</v>
       </c>
       <c r="D34">
-        <v>-0.03209626474641508</v>
+        <v>0.02059888961029035</v>
       </c>
       <c r="E34">
-        <v>0.02196071994304054</v>
+        <v>0.009989264402849444</v>
       </c>
       <c r="F34">
-        <v>0.03108707481546227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03277755865386462</v>
+      </c>
+      <c r="G34">
+        <v>-0.04984694231280028</v>
+      </c>
+      <c r="H34">
+        <v>0.03129025119326351</v>
+      </c>
+      <c r="I34">
+        <v>0.06103389334170225</v>
+      </c>
+      <c r="J34">
+        <v>-0.03923242048497078</v>
+      </c>
+      <c r="K34">
+        <v>-0.05015941408399625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04131992975798846</v>
+        <v>0.0349352875283332</v>
       </c>
       <c r="C35">
-        <v>-0.007231834341071253</v>
+        <v>0.02007548681015887</v>
       </c>
       <c r="D35">
-        <v>-0.019615265799988</v>
+        <v>0.009058895422236757</v>
       </c>
       <c r="E35">
-        <v>0.003551075926086925</v>
+        <v>-0.007127076706374896</v>
       </c>
       <c r="F35">
-        <v>0.01018329313451196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01906583464565311</v>
+      </c>
+      <c r="G35">
+        <v>0.007741596921730851</v>
+      </c>
+      <c r="H35">
+        <v>0.02631830999058694</v>
+      </c>
+      <c r="I35">
+        <v>0.05999478280712921</v>
+      </c>
+      <c r="J35">
+        <v>-0.02748172835005268</v>
+      </c>
+      <c r="K35">
+        <v>0.01516769304688819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03808467738116274</v>
+        <v>0.03402423366641167</v>
       </c>
       <c r="C36">
-        <v>-0.01322893107193952</v>
+        <v>0.01300195836244345</v>
       </c>
       <c r="D36">
-        <v>-0.0158684865197603</v>
+        <v>-0.001931388352101171</v>
       </c>
       <c r="E36">
-        <v>0.03075834191438336</v>
+        <v>0.02096705091474683</v>
       </c>
       <c r="F36">
-        <v>0.009482115594425321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.03149501115648852</v>
+      </c>
+      <c r="G36">
+        <v>-0.02324597778383988</v>
+      </c>
+      <c r="H36">
+        <v>0.01871654434442172</v>
+      </c>
+      <c r="I36">
+        <v>0.06885106101515145</v>
+      </c>
+      <c r="J36">
+        <v>-0.01452860343997497</v>
+      </c>
+      <c r="K36">
+        <v>0.04484653161133052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06799007957296095</v>
+        <v>0.04984201970808969</v>
       </c>
       <c r="C38">
-        <v>-0.02225761751134913</v>
+        <v>0.05070896310259396</v>
       </c>
       <c r="D38">
-        <v>0.01860962406750506</v>
+        <v>-0.04333726571549177</v>
       </c>
       <c r="E38">
-        <v>-0.01927436189633877</v>
+        <v>0.01293130009417397</v>
       </c>
       <c r="F38">
-        <v>0.04944019929863149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007014311151034099</v>
+      </c>
+      <c r="G38">
+        <v>-0.002860717938356383</v>
+      </c>
+      <c r="H38">
+        <v>-0.002413998688120822</v>
+      </c>
+      <c r="I38">
+        <v>-0.08645182139638849</v>
+      </c>
+      <c r="J38">
+        <v>-0.01265946932898658</v>
+      </c>
+      <c r="K38">
+        <v>0.07197500671125515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09350032143733365</v>
+        <v>0.09834914748915703</v>
       </c>
       <c r="C39">
-        <v>-0.0461341840287296</v>
+        <v>0.05304308880483644</v>
       </c>
       <c r="D39">
-        <v>-0.04098331693840141</v>
+        <v>0.02043775919525344</v>
       </c>
       <c r="E39">
-        <v>0.00429250661795498</v>
+        <v>0.01388906758475978</v>
       </c>
       <c r="F39">
-        <v>0.02332906475680788</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04235119085218478</v>
+      </c>
+      <c r="G39">
+        <v>-0.04135562339095437</v>
+      </c>
+      <c r="H39">
+        <v>0.006024283701627135</v>
+      </c>
+      <c r="I39">
+        <v>0.06821330392912237</v>
+      </c>
+      <c r="J39">
+        <v>-0.1696659745794749</v>
+      </c>
+      <c r="K39">
+        <v>-0.0001975298219740257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07123685452822079</v>
+        <v>0.04495786143897707</v>
       </c>
       <c r="C40">
-        <v>-0.01108760802985585</v>
+        <v>0.03837472727378459</v>
       </c>
       <c r="D40">
-        <v>-0.01906730276976456</v>
+        <v>-0.05534769020121404</v>
       </c>
       <c r="E40">
-        <v>0.01171186063090737</v>
+        <v>0.0002308381723259782</v>
       </c>
       <c r="F40">
-        <v>0.09413089233166265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04388566204000089</v>
+      </c>
+      <c r="G40">
+        <v>-0.08719511980451125</v>
+      </c>
+      <c r="H40">
+        <v>-0.1014935729456363</v>
+      </c>
+      <c r="I40">
+        <v>0.07982548433173943</v>
+      </c>
+      <c r="J40">
+        <v>-0.2530081254814407</v>
+      </c>
+      <c r="K40">
+        <v>0.08103581001935836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06023983318467611</v>
+        <v>0.04719501298674164</v>
       </c>
       <c r="C41">
-        <v>-0.02375562153928716</v>
+        <v>0.02895917922364791</v>
       </c>
       <c r="D41">
-        <v>-0.00684173097063514</v>
+        <v>0.008796110677700291</v>
       </c>
       <c r="E41">
-        <v>-0.008806838986370871</v>
+        <v>-0.005725612755375427</v>
       </c>
       <c r="F41">
-        <v>0.009254332009244734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.02120701311982504</v>
+      </c>
+      <c r="G41">
+        <v>-0.0219954161614903</v>
+      </c>
+      <c r="H41">
+        <v>0.02708074430627602</v>
+      </c>
+      <c r="I41">
+        <v>0.002062530768291215</v>
+      </c>
+      <c r="J41">
+        <v>-0.03095521123108525</v>
+      </c>
+      <c r="K41">
+        <v>0.03985857969052535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06456707196457609</v>
+        <v>0.06116845098067019</v>
       </c>
       <c r="C43">
-        <v>-0.01372115854110696</v>
+        <v>0.03514261481857743</v>
       </c>
       <c r="D43">
-        <v>-0.01579643561901951</v>
+        <v>0.006247908169515958</v>
       </c>
       <c r="E43">
-        <v>0.01859783344247742</v>
+        <v>0.02065523981012961</v>
       </c>
       <c r="F43">
-        <v>-0.002539729700526083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.009058149960738105</v>
+      </c>
+      <c r="G43">
+        <v>-0.01069782613249837</v>
+      </c>
+      <c r="H43">
+        <v>0.05440698439262914</v>
+      </c>
+      <c r="I43">
+        <v>0.005171764792024806</v>
+      </c>
+      <c r="J43">
+        <v>-0.02008347881292161</v>
+      </c>
+      <c r="K43">
+        <v>0.009323259345481755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09091494569073816</v>
+        <v>0.09321694631821692</v>
       </c>
       <c r="C44">
-        <v>-0.04852242495007767</v>
+        <v>0.05452891011764968</v>
       </c>
       <c r="D44">
-        <v>-0.01234280857376916</v>
+        <v>-0.01631388939501561</v>
       </c>
       <c r="E44">
-        <v>0.08778168104890156</v>
+        <v>0.1049983917491265</v>
       </c>
       <c r="F44">
-        <v>0.1083498830937136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.08289419047030172</v>
+      </c>
+      <c r="G44">
+        <v>-0.08001431180680108</v>
+      </c>
+      <c r="H44">
+        <v>0.05082588731328973</v>
+      </c>
+      <c r="I44">
+        <v>0.1231088777464025</v>
+      </c>
+      <c r="J44">
+        <v>-0.1050023771642583</v>
+      </c>
+      <c r="K44">
+        <v>0.01320566491547789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03259920199448062</v>
+        <v>0.04724088465655867</v>
       </c>
       <c r="C46">
-        <v>-0.03258966460454743</v>
+        <v>0.03098440829843693</v>
       </c>
       <c r="D46">
-        <v>-0.01648441285255224</v>
+        <v>0.009653943342647332</v>
       </c>
       <c r="E46">
-        <v>0.01772624444781281</v>
+        <v>0.02719762581651468</v>
       </c>
       <c r="F46">
-        <v>0.0471322990977608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04316378096109873</v>
+      </c>
+      <c r="G46">
+        <v>-0.005884899166454484</v>
+      </c>
+      <c r="H46">
+        <v>0.02651275178368465</v>
+      </c>
+      <c r="I46">
+        <v>0.03696932021442957</v>
+      </c>
+      <c r="J46">
+        <v>0.01962265669289814</v>
+      </c>
+      <c r="K46">
+        <v>0.04022242988243201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03929428656438428</v>
+        <v>0.04731735008275086</v>
       </c>
       <c r="C47">
-        <v>0.006090207239784846</v>
+        <v>0.01053905134514423</v>
       </c>
       <c r="D47">
-        <v>-0.009426850143280501</v>
+        <v>-0.01214209379193964</v>
       </c>
       <c r="E47">
-        <v>0.0159198239406143</v>
+        <v>0.003377126371635094</v>
       </c>
       <c r="F47">
-        <v>0.06376258508827855</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04100972197130635</v>
+      </c>
+      <c r="G47">
+        <v>0.007681278939166917</v>
+      </c>
+      <c r="H47">
+        <v>0.02319990001492379</v>
+      </c>
+      <c r="I47">
+        <v>0.03351698095860933</v>
+      </c>
+      <c r="J47">
+        <v>0.02016283951206041</v>
+      </c>
+      <c r="K47">
+        <v>0.0003340744945700372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.05056510107461488</v>
+        <v>0.04427173491831498</v>
       </c>
       <c r="C48">
-        <v>-0.01792730791250106</v>
+        <v>0.01529767456944759</v>
       </c>
       <c r="D48">
-        <v>-0.03090006003515194</v>
+        <v>-0.007374994099492388</v>
       </c>
       <c r="E48">
-        <v>0.02153976981426892</v>
+        <v>0.003923792141431132</v>
       </c>
       <c r="F48">
-        <v>0.02587307587420613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.04191413553693523</v>
+      </c>
+      <c r="G48">
+        <v>-0.002344290996415329</v>
+      </c>
+      <c r="H48">
+        <v>-0.008012023802061181</v>
+      </c>
+      <c r="I48">
+        <v>0.05928466982816249</v>
+      </c>
+      <c r="J48">
+        <v>-0.00406740462481098</v>
+      </c>
+      <c r="K48">
+        <v>0.05495386846223592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1491939028668089</v>
+        <v>0.2060515622010515</v>
       </c>
       <c r="C49">
-        <v>-0.01470414863136176</v>
+        <v>0.02347555783236882</v>
       </c>
       <c r="D49">
-        <v>-0.08824223522887413</v>
+        <v>0.1777036277588979</v>
       </c>
       <c r="E49">
-        <v>0.03207759308160455</v>
+        <v>-0.01936164752536106</v>
       </c>
       <c r="F49">
-        <v>-0.1322855016865976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.06425876488033394</v>
+      </c>
+      <c r="G49">
+        <v>0.1402100251072249</v>
+      </c>
+      <c r="H49">
+        <v>-0.1888480947525322</v>
+      </c>
+      <c r="I49">
+        <v>-0.121738008634897</v>
+      </c>
+      <c r="J49">
+        <v>-0.08877861371534819</v>
+      </c>
+      <c r="K49">
+        <v>-0.2309059469595293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06627385799474025</v>
+        <v>0.05570234514788271</v>
       </c>
       <c r="C50">
-        <v>-0.02293715492410308</v>
+        <v>0.03670897625853367</v>
       </c>
       <c r="D50">
-        <v>-0.03629305863976384</v>
+        <v>0.007526796517317063</v>
       </c>
       <c r="E50">
-        <v>0.0005007754579898899</v>
+        <v>-0.01141226078187871</v>
       </c>
       <c r="F50">
-        <v>0.01325611183185061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03678208125855898</v>
+      </c>
+      <c r="G50">
+        <v>-0.01303207792776707</v>
+      </c>
+      <c r="H50">
+        <v>0.05736718967005017</v>
+      </c>
+      <c r="I50">
+        <v>0.03805917338456668</v>
+      </c>
+      <c r="J50">
+        <v>0.03048924884565712</v>
+      </c>
+      <c r="K50">
+        <v>0.03819073597790171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03923010364922545</v>
+        <v>0.04109359320551851</v>
       </c>
       <c r="C51">
-        <v>0.0008691981056387559</v>
+        <v>0.002259253000295794</v>
       </c>
       <c r="D51">
-        <v>0.01082007785128418</v>
+        <v>-0.009303053228621823</v>
       </c>
       <c r="E51">
-        <v>0.0007945597676945152</v>
+        <v>0.02195566403794628</v>
       </c>
       <c r="F51">
-        <v>0.0102588572715587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.02997469476871657</v>
+      </c>
+      <c r="G51">
+        <v>0.0126380687790017</v>
+      </c>
+      <c r="H51">
+        <v>-0.02084813864885231</v>
+      </c>
+      <c r="I51">
+        <v>-0.01151496495052652</v>
+      </c>
+      <c r="J51">
+        <v>-0.04067384519283687</v>
+      </c>
+      <c r="K51">
+        <v>-0.06695309719861839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1524723408038122</v>
+        <v>0.1552073538616222</v>
       </c>
       <c r="C53">
-        <v>0.03102554849520049</v>
+        <v>0.01310852240747252</v>
       </c>
       <c r="D53">
-        <v>-0.07055824723132484</v>
+        <v>0.06932643706102383</v>
       </c>
       <c r="E53">
-        <v>0.001625982841835581</v>
+        <v>-0.02066582885567242</v>
       </c>
       <c r="F53">
-        <v>-0.02778450689485452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.005355779013528272</v>
+      </c>
+      <c r="G53">
+        <v>0.02295549509665028</v>
+      </c>
+      <c r="H53">
+        <v>0.2317899133007657</v>
+      </c>
+      <c r="I53">
+        <v>-0.07674503909415289</v>
+      </c>
+      <c r="J53">
+        <v>0.05009153473968297</v>
+      </c>
+      <c r="K53">
+        <v>-0.05186487309386893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06437339300335654</v>
+        <v>0.06348237183972112</v>
       </c>
       <c r="C54">
-        <v>-0.01674649921583396</v>
+        <v>0.01205963448523349</v>
       </c>
       <c r="D54">
-        <v>-3.332770706101725e-05</v>
+        <v>-0.01922393419631487</v>
       </c>
       <c r="E54">
-        <v>0.03881118769183936</v>
+        <v>0.03715985622635475</v>
       </c>
       <c r="F54">
-        <v>0.05975642711240815</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.05994078360041753</v>
+      </c>
+      <c r="G54">
+        <v>-0.06138735927606596</v>
+      </c>
+      <c r="H54">
+        <v>0.02302591707498964</v>
+      </c>
+      <c r="I54">
+        <v>0.1151800066281167</v>
+      </c>
+      <c r="J54">
+        <v>0.004402850562977782</v>
+      </c>
+      <c r="K54">
+        <v>0.06778264522043057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09450299939837094</v>
+        <v>0.09524698303068158</v>
       </c>
       <c r="C55">
-        <v>0.003734738832969937</v>
+        <v>0.02535988500920346</v>
       </c>
       <c r="D55">
-        <v>-0.05236584897217597</v>
+        <v>0.04790219820166938</v>
       </c>
       <c r="E55">
-        <v>0.02073099021005035</v>
+        <v>0.006365530043996614</v>
       </c>
       <c r="F55">
-        <v>0.02336544927392208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.009949189854096228</v>
+      </c>
+      <c r="G55">
+        <v>-0.02970268996781049</v>
+      </c>
+      <c r="H55">
+        <v>0.1794527348472275</v>
+      </c>
+      <c r="I55">
+        <v>-0.004344701193924062</v>
+      </c>
+      <c r="J55">
+        <v>0.02491918471871335</v>
+      </c>
+      <c r="K55">
+        <v>-0.04513915968862231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1523333929425399</v>
+        <v>0.1515435718345816</v>
       </c>
       <c r="C56">
-        <v>0.02994177149431335</v>
+        <v>0.03224555317668825</v>
       </c>
       <c r="D56">
-        <v>-0.08563019466991126</v>
+        <v>0.06891341262389895</v>
       </c>
       <c r="E56">
-        <v>0.04064791487763994</v>
+        <v>0.0005027222985626925</v>
       </c>
       <c r="F56">
-        <v>-0.04229088760364168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01092580410661868</v>
+      </c>
+      <c r="G56">
+        <v>0.004246859360262914</v>
+      </c>
+      <c r="H56">
+        <v>0.2334126279593462</v>
+      </c>
+      <c r="I56">
+        <v>-0.08933970038645722</v>
+      </c>
+      <c r="J56">
+        <v>0.03037166668575031</v>
+      </c>
+      <c r="K56">
+        <v>-0.01009340600388222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1160366761117869</v>
+        <v>0.07408240686003768</v>
       </c>
       <c r="C58">
-        <v>-0.06435484732817692</v>
+        <v>0.05080672008999047</v>
       </c>
       <c r="D58">
-        <v>0.1365563615116882</v>
+        <v>-0.1733959807803013</v>
       </c>
       <c r="E58">
-        <v>0.1103974606882862</v>
+        <v>0.08296511029004973</v>
       </c>
       <c r="F58">
-        <v>0.1820213512536481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.0419883096029495</v>
+      </c>
+      <c r="G58">
+        <v>0.1120165681873563</v>
+      </c>
+      <c r="H58">
+        <v>-0.1776441392818748</v>
+      </c>
+      <c r="I58">
+        <v>0.5250677667399448</v>
+      </c>
+      <c r="J58">
+        <v>-0.062870640912825</v>
+      </c>
+      <c r="K58">
+        <v>-0.1783781120213226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1394165190192148</v>
+        <v>0.1754395805943649</v>
       </c>
       <c r="C59">
-        <v>0.4410756197524263</v>
+        <v>-0.3525362367550798</v>
       </c>
       <c r="D59">
-        <v>0.04548227002077596</v>
+        <v>-0.03011034043494431</v>
       </c>
       <c r="E59">
-        <v>0.08739627206234049</v>
+        <v>0.03553757226019266</v>
       </c>
       <c r="F59">
-        <v>0.06211976536918348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.03350972228540985</v>
+      </c>
+      <c r="G59">
+        <v>-0.02813597015385383</v>
+      </c>
+      <c r="H59">
+        <v>0.03695398100885398</v>
+      </c>
+      <c r="I59">
+        <v>-0.05539634600072931</v>
+      </c>
+      <c r="J59">
+        <v>-0.05064811313287617</v>
+      </c>
+      <c r="K59">
+        <v>0.004022147627560018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2221060055527403</v>
+        <v>0.246523396724426</v>
       </c>
       <c r="C60">
-        <v>0.02118946598867582</v>
+        <v>0.04197334197268305</v>
       </c>
       <c r="D60">
-        <v>-0.08274968694852511</v>
+        <v>0.1314940992883431</v>
       </c>
       <c r="E60">
-        <v>0.05388143739903233</v>
+        <v>0.01916831869328849</v>
       </c>
       <c r="F60">
-        <v>-0.02077541060522174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.04634975287293636</v>
+      </c>
+      <c r="G60">
+        <v>0.01882084580587456</v>
+      </c>
+      <c r="H60">
+        <v>-0.1029440005987426</v>
+      </c>
+      <c r="I60">
+        <v>-0.1087078348407207</v>
+      </c>
+      <c r="J60">
+        <v>0.1039687765455574</v>
+      </c>
+      <c r="K60">
+        <v>-0.1613893894986234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.07912511407798101</v>
+        <v>0.08800269502881898</v>
       </c>
       <c r="C61">
-        <v>-0.02315955543701035</v>
+        <v>0.03733979334499615</v>
       </c>
       <c r="D61">
-        <v>-0.030703329715959</v>
+        <v>0.02089189976348896</v>
       </c>
       <c r="E61">
-        <v>0.007378439765423854</v>
+        <v>0.02109569854348151</v>
       </c>
       <c r="F61">
-        <v>0.006962788090073164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02989013985609769</v>
+      </c>
+      <c r="G61">
+        <v>-0.05384920942277443</v>
+      </c>
+      <c r="H61">
+        <v>0.05895497194676473</v>
+      </c>
+      <c r="I61">
+        <v>0.03433827500260419</v>
+      </c>
+      <c r="J61">
+        <v>-0.09229387998739509</v>
+      </c>
+      <c r="K61">
+        <v>0.003077869188200587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1492716145788275</v>
+        <v>0.1462478687682638</v>
       </c>
       <c r="C62">
-        <v>0.01976242568845471</v>
+        <v>0.03825297662092056</v>
       </c>
       <c r="D62">
-        <v>-0.04231678352310025</v>
+        <v>0.05260525790517259</v>
       </c>
       <c r="E62">
-        <v>-0.01972635856413508</v>
+        <v>-0.0452930881033231</v>
       </c>
       <c r="F62">
-        <v>-0.0610040168819155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02205200197137455</v>
+      </c>
+      <c r="G62">
+        <v>-0.02040092216288728</v>
+      </c>
+      <c r="H62">
+        <v>0.2284987506038237</v>
+      </c>
+      <c r="I62">
+        <v>-0.0801439205969309</v>
+      </c>
+      <c r="J62">
+        <v>0.09084959622975122</v>
+      </c>
+      <c r="K62">
+        <v>-0.01347118941568835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06078626611634448</v>
+        <v>0.05349271229244542</v>
       </c>
       <c r="C63">
-        <v>-0.02727065111259864</v>
+        <v>0.02221941500428683</v>
       </c>
       <c r="D63">
-        <v>-0.02012753735369121</v>
+        <v>0.002946953450803408</v>
       </c>
       <c r="E63">
-        <v>0.01519294609548168</v>
+        <v>-0.003182024795491518</v>
       </c>
       <c r="F63">
-        <v>0.009001778306397163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03011979814879021</v>
+      </c>
+      <c r="G63">
+        <v>-0.0429548387457711</v>
+      </c>
+      <c r="H63">
+        <v>0.02099702265456277</v>
+      </c>
+      <c r="I63">
+        <v>0.05233425285510576</v>
+      </c>
+      <c r="J63">
+        <v>0.02451371854829182</v>
+      </c>
+      <c r="K63">
+        <v>0.03502485135452635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.09780926679336656</v>
+        <v>0.1044347712729565</v>
       </c>
       <c r="C64">
-        <v>0.00701470361082475</v>
+        <v>0.01659262108579389</v>
       </c>
       <c r="D64">
-        <v>-0.06100465832318879</v>
+        <v>0.04618277392622096</v>
       </c>
       <c r="E64">
-        <v>0.03245000418813999</v>
+        <v>0.03180798648000518</v>
       </c>
       <c r="F64">
-        <v>0.04580194111398673</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.06965759029199646</v>
+      </c>
+      <c r="G64">
+        <v>-0.04562426905304914</v>
+      </c>
+      <c r="H64">
+        <v>-0.01683295914493611</v>
+      </c>
+      <c r="I64">
+        <v>0.03911608022085914</v>
+      </c>
+      <c r="J64">
+        <v>-0.05954418350672736</v>
+      </c>
+      <c r="K64">
+        <v>0.02732794238120216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1258106620235747</v>
+        <v>0.1339804846434249</v>
       </c>
       <c r="C65">
-        <v>-0.030665259139601</v>
+        <v>0.01866848815849484</v>
       </c>
       <c r="D65">
-        <v>-0.05727308045829976</v>
+        <v>0.063788257472309</v>
       </c>
       <c r="E65">
-        <v>0.0516952941499679</v>
+        <v>-0.001865597933301557</v>
       </c>
       <c r="F65">
-        <v>0.08805281527613984</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.06178966444609951</v>
+      </c>
+      <c r="G65">
+        <v>-0.09831432020948985</v>
+      </c>
+      <c r="H65">
+        <v>-0.1618839791789132</v>
+      </c>
+      <c r="I65">
+        <v>0.2377722252162444</v>
+      </c>
+      <c r="J65">
+        <v>0.6357970932202909</v>
+      </c>
+      <c r="K65">
+        <v>-0.05392597640402304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1577206918766514</v>
+        <v>0.1434790012556627</v>
       </c>
       <c r="C66">
-        <v>-0.0809219578115391</v>
+        <v>0.09892185406040216</v>
       </c>
       <c r="D66">
-        <v>-0.06296655380582154</v>
+        <v>0.02856104185680152</v>
       </c>
       <c r="E66">
-        <v>0.01371645329691059</v>
+        <v>0.005491864035203469</v>
       </c>
       <c r="F66">
-        <v>-0.02665645795373541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03998721236428242</v>
+      </c>
+      <c r="G66">
+        <v>-0.07788333655566372</v>
+      </c>
+      <c r="H66">
+        <v>0.02617103702179837</v>
+      </c>
+      <c r="I66">
+        <v>0.05851456974733484</v>
+      </c>
+      <c r="J66">
+        <v>-0.2590728019716255</v>
+      </c>
+      <c r="K66">
+        <v>0.05184829008806611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.0982882975613471</v>
+        <v>0.09619731270646209</v>
       </c>
       <c r="C67">
-        <v>-0.02421520282721396</v>
+        <v>0.05219614215934017</v>
       </c>
       <c r="D67">
-        <v>0.02350476320261436</v>
+        <v>-0.01861212333513121</v>
       </c>
       <c r="E67">
-        <v>0.00217478011569239</v>
+        <v>0.03669852808369526</v>
       </c>
       <c r="F67">
-        <v>0.009522201511175572</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03016450355336979</v>
+      </c>
+      <c r="G67">
+        <v>-0.02017039943608115</v>
+      </c>
+      <c r="H67">
+        <v>-0.01177032777990228</v>
+      </c>
+      <c r="I67">
+        <v>-0.129496819986228</v>
+      </c>
+      <c r="J67">
+        <v>-0.04207331419644227</v>
+      </c>
+      <c r="K67">
+        <v>0.0430838036975132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04801376912611351</v>
+        <v>0.08219586266993882</v>
       </c>
       <c r="C68">
-        <v>0.2576665714319568</v>
+        <v>-0.2769347445674701</v>
       </c>
       <c r="D68">
-        <v>0.02778884299326208</v>
+        <v>-0.03548662218744136</v>
       </c>
       <c r="E68">
-        <v>0.04278888959269203</v>
+        <v>0.02716448533229552</v>
       </c>
       <c r="F68">
-        <v>0.03682890258091249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02888021116967914</v>
+      </c>
+      <c r="G68">
+        <v>0.01761000224519788</v>
+      </c>
+      <c r="H68">
+        <v>0.02294499935718926</v>
+      </c>
+      <c r="I68">
+        <v>0.04232731084177237</v>
+      </c>
+      <c r="J68">
+        <v>0.04318217449025249</v>
+      </c>
+      <c r="K68">
+        <v>0.02107994020741744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06749391062493793</v>
+        <v>0.05604463333603071</v>
       </c>
       <c r="C69">
-        <v>-0.01222188348120676</v>
+        <v>0.0175439383182713</v>
       </c>
       <c r="D69">
-        <v>8.61280985471207e-07</v>
+        <v>-0.01530835522547477</v>
       </c>
       <c r="E69">
-        <v>0.0181157260310243</v>
+        <v>-0.004528581428449802</v>
       </c>
       <c r="F69">
-        <v>0.01239156001092952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0005974435655326649</v>
+      </c>
+      <c r="G69">
+        <v>-0.01706409974430268</v>
+      </c>
+      <c r="H69">
+        <v>0.03418516009030766</v>
+      </c>
+      <c r="I69">
+        <v>0.009147853715926258</v>
+      </c>
+      <c r="J69">
+        <v>-0.008955505834094088</v>
+      </c>
+      <c r="K69">
+        <v>-0.001857558032260241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01497329247848259</v>
+        <v>0.04086677841396998</v>
       </c>
       <c r="C70">
-        <v>0.01260118128990294</v>
+        <v>0.003550310381869283</v>
       </c>
       <c r="D70">
-        <v>0.005502605112334991</v>
+        <v>0.01783424671389741</v>
       </c>
       <c r="E70">
-        <v>-0.01513142350594762</v>
+        <v>-0.004211498901977473</v>
       </c>
       <c r="F70">
-        <v>-0.01547268674168512</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.05476715003035745</v>
+      </c>
+      <c r="G70">
+        <v>-0.01156021307953359</v>
+      </c>
+      <c r="H70">
+        <v>-0.02329116373717469</v>
+      </c>
+      <c r="I70">
+        <v>-0.0298480423173588</v>
+      </c>
+      <c r="J70">
+        <v>-0.03096739541182139</v>
+      </c>
+      <c r="K70">
+        <v>0.111635133737286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04538772700472198</v>
+        <v>0.09237254021637122</v>
       </c>
       <c r="C71">
-        <v>0.2841472876943826</v>
+        <v>-0.2969124631503109</v>
       </c>
       <c r="D71">
-        <v>0.03031166592114572</v>
+        <v>-0.02251942992508919</v>
       </c>
       <c r="E71">
-        <v>0.07472144058109638</v>
+        <v>0.04545502708072412</v>
       </c>
       <c r="F71">
-        <v>0.02905807374977858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03025763251045546</v>
+      </c>
+      <c r="G71">
+        <v>0.00385519642655475</v>
+      </c>
+      <c r="H71">
+        <v>0.01498804909287688</v>
+      </c>
+      <c r="I71">
+        <v>0.02024275318046793</v>
+      </c>
+      <c r="J71">
+        <v>0.007763093170244465</v>
+      </c>
+      <c r="K71">
+        <v>0.005066876499089532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1453283269755959</v>
+        <v>0.1357781418358684</v>
       </c>
       <c r="C72">
-        <v>0.04272250247292033</v>
+        <v>-0.002018655252425471</v>
       </c>
       <c r="D72">
-        <v>-0.03544799296174803</v>
+        <v>-0.01593470307477262</v>
       </c>
       <c r="E72">
-        <v>-0.2339326393593528</v>
+        <v>-0.1729343658017995</v>
       </c>
       <c r="F72">
-        <v>0.04835607504186464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.003303986907941315</v>
+      </c>
+      <c r="G72">
+        <v>-0.1242529479219963</v>
+      </c>
+      <c r="H72">
+        <v>0.02224487317931928</v>
+      </c>
+      <c r="I72">
+        <v>-0.006810383458259699</v>
+      </c>
+      <c r="J72">
+        <v>0.1018459213585697</v>
+      </c>
+      <c r="K72">
+        <v>-0.1203677222167358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2486693878396465</v>
+        <v>0.2430718293448364</v>
       </c>
       <c r="C73">
-        <v>-0.04816757569062712</v>
+        <v>0.1040990070643941</v>
       </c>
       <c r="D73">
-        <v>-0.09567272980575188</v>
+        <v>0.2065560342142521</v>
       </c>
       <c r="E73">
-        <v>0.08732683135058381</v>
+        <v>0.0476404547865483</v>
       </c>
       <c r="F73">
-        <v>-0.2023319005731957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2113588069436311</v>
+      </c>
+      <c r="G73">
+        <v>0.232684840552813</v>
+      </c>
+      <c r="H73">
+        <v>-0.2991269640216098</v>
+      </c>
+      <c r="I73">
+        <v>-0.110357749038337</v>
+      </c>
+      <c r="J73">
+        <v>-0.1820558830188456</v>
+      </c>
+      <c r="K73">
+        <v>-0.4521395265846886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.08697918210645472</v>
+        <v>0.09279104849922513</v>
       </c>
       <c r="C74">
-        <v>0.01468457258675881</v>
+        <v>0.03274889830367519</v>
       </c>
       <c r="D74">
-        <v>-0.05965091799012852</v>
+        <v>0.04410341197087807</v>
       </c>
       <c r="E74">
-        <v>0.005094956093307543</v>
+        <v>-0.01508506970258988</v>
       </c>
       <c r="F74">
-        <v>0.002677706915039352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.01757419110285309</v>
+      </c>
+      <c r="G74">
+        <v>0.02950228890551108</v>
+      </c>
+      <c r="H74">
+        <v>0.1432548778709085</v>
+      </c>
+      <c r="I74">
+        <v>-0.01555382471641049</v>
+      </c>
+      <c r="J74">
+        <v>-0.0129652537491973</v>
+      </c>
+      <c r="K74">
+        <v>-0.05765831068075777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1218116049282127</v>
+        <v>0.1049488354464038</v>
       </c>
       <c r="C75">
-        <v>0.0006207057242458836</v>
+        <v>0.02991409502818854</v>
       </c>
       <c r="D75">
-        <v>-0.002276434680234285</v>
+        <v>-0.01145586148408696</v>
       </c>
       <c r="E75">
-        <v>0.02120398924193134</v>
+        <v>-0.005639900310014173</v>
       </c>
       <c r="F75">
-        <v>-0.02808850873223982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03381270164487399</v>
+      </c>
+      <c r="G75">
+        <v>0.01739693345458027</v>
+      </c>
+      <c r="H75">
+        <v>0.1226837325861575</v>
+      </c>
+      <c r="I75">
+        <v>-0.03780017590679291</v>
+      </c>
+      <c r="J75">
+        <v>0.0467750891922694</v>
+      </c>
+      <c r="K75">
+        <v>-0.01029945788581288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.140025741822631</v>
+        <v>0.1255684400989159</v>
       </c>
       <c r="C76">
-        <v>0.008568676150230003</v>
+        <v>0.05061222466552219</v>
       </c>
       <c r="D76">
-        <v>-0.07228055056293065</v>
+        <v>0.06098730946784196</v>
       </c>
       <c r="E76">
-        <v>0.02232319481536722</v>
+        <v>0.005673785216585923</v>
       </c>
       <c r="F76">
-        <v>0.01434721400320398</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01807488982967963</v>
+      </c>
+      <c r="G76">
+        <v>0.01413787069321649</v>
+      </c>
+      <c r="H76">
+        <v>0.2573063621179898</v>
+      </c>
+      <c r="I76">
+        <v>-0.06637687810181014</v>
+      </c>
+      <c r="J76">
+        <v>0.04646724496229514</v>
+      </c>
+      <c r="K76">
+        <v>-0.01529301664123833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1314813819255915</v>
+        <v>0.09074566253031226</v>
       </c>
       <c r="C77">
-        <v>-0.03401844626479617</v>
+        <v>0.02909248180104448</v>
       </c>
       <c r="D77">
-        <v>0.08732253258962561</v>
+        <v>-0.146791378363225</v>
       </c>
       <c r="E77">
-        <v>0.03958939278473987</v>
+        <v>0.1196489610894582</v>
       </c>
       <c r="F77">
-        <v>0.4229035406482795</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01805816141748326</v>
+      </c>
+      <c r="G77">
+        <v>-0.7153032021097693</v>
+      </c>
+      <c r="H77">
+        <v>-0.2706993546541874</v>
+      </c>
+      <c r="I77">
+        <v>-0.3951703881130537</v>
+      </c>
+      <c r="J77">
+        <v>-0.02921016690585118</v>
+      </c>
+      <c r="K77">
+        <v>-0.01465589741215011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1278304955113767</v>
+        <v>0.1646297744161133</v>
       </c>
       <c r="C78">
-        <v>-0.07159257169839564</v>
+        <v>0.0786064878780479</v>
       </c>
       <c r="D78">
-        <v>-0.0440163362991025</v>
+        <v>-0.01969615367103066</v>
       </c>
       <c r="E78">
-        <v>0.01218736770348164</v>
+        <v>0.08687965023278309</v>
       </c>
       <c r="F78">
-        <v>0.08820641693517937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.147218993596681</v>
+      </c>
+      <c r="G78">
+        <v>-0.0297722024213072</v>
+      </c>
+      <c r="H78">
+        <v>-0.08009477326765067</v>
+      </c>
+      <c r="I78">
+        <v>0.02614907779756822</v>
+      </c>
+      <c r="J78">
+        <v>0.00597212116950621</v>
+      </c>
+      <c r="K78">
+        <v>-0.1353640266600225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1491991688020751</v>
+        <v>0.1433350198935393</v>
       </c>
       <c r="C79">
-        <v>-0.01724742706725162</v>
+        <v>0.0433341337765788</v>
       </c>
       <c r="D79">
-        <v>-0.06553561646762407</v>
+        <v>0.04461655638421463</v>
       </c>
       <c r="E79">
-        <v>0.003319490540217844</v>
+        <v>-0.006165622383215607</v>
       </c>
       <c r="F79">
-        <v>-0.04710335349632785</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.01247707342238752</v>
+      </c>
+      <c r="G79">
+        <v>-0.02316485626881848</v>
+      </c>
+      <c r="H79">
+        <v>0.1869241189394315</v>
+      </c>
+      <c r="I79">
+        <v>-0.06454238369455237</v>
+      </c>
+      <c r="J79">
+        <v>0.06786132512557044</v>
+      </c>
+      <c r="K79">
+        <v>-0.01747753544136681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03876094900817851</v>
+        <v>0.04474498750537396</v>
       </c>
       <c r="C80">
-        <v>-0.02272186540534741</v>
+        <v>0.008629200671579023</v>
       </c>
       <c r="D80">
-        <v>-0.01502480469610726</v>
+        <v>0.05435589526044386</v>
       </c>
       <c r="E80">
-        <v>0.004737677466062108</v>
+        <v>-0.01170165664523709</v>
       </c>
       <c r="F80">
-        <v>0.0003600251081798105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02885568498898212</v>
+      </c>
+      <c r="G80">
+        <v>6.852922229516984e-05</v>
+      </c>
+      <c r="H80">
+        <v>-0.03181386391939305</v>
+      </c>
+      <c r="I80">
+        <v>0.07858785435530667</v>
+      </c>
+      <c r="J80">
+        <v>-0.03745703240587844</v>
+      </c>
+      <c r="K80">
+        <v>0.01281576527954565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.134997758910028</v>
+        <v>0.1320162222956502</v>
       </c>
       <c r="C81">
-        <v>0.003941424120495549</v>
+        <v>0.01828096483893062</v>
       </c>
       <c r="D81">
-        <v>-0.05358326721596406</v>
+        <v>0.03649380085114153</v>
       </c>
       <c r="E81">
-        <v>0.03021436656456385</v>
+        <v>-0.007575645418609866</v>
       </c>
       <c r="F81">
-        <v>-0.03816333244736666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0114621985927376</v>
+      </c>
+      <c r="G81">
+        <v>0.005319776265360472</v>
+      </c>
+      <c r="H81">
+        <v>0.1448157488300436</v>
+      </c>
+      <c r="I81">
+        <v>-0.029665282794683</v>
+      </c>
+      <c r="J81">
+        <v>-0.0287085443004528</v>
+      </c>
+      <c r="K81">
+        <v>0.01882164409861542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1234820701598033</v>
+        <v>0.126769624193051</v>
       </c>
       <c r="C82">
-        <v>-0.01667471779320967</v>
+        <v>0.02969509252499225</v>
       </c>
       <c r="D82">
-        <v>-0.03810316327158442</v>
+        <v>0.04305624310092761</v>
       </c>
       <c r="E82">
-        <v>0.03883451322253366</v>
+        <v>-0.007028608172447925</v>
       </c>
       <c r="F82">
-        <v>-0.04637764677328272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01184580858510976</v>
+      </c>
+      <c r="G82">
+        <v>0.01798272492607648</v>
+      </c>
+      <c r="H82">
+        <v>0.2780006463896331</v>
+      </c>
+      <c r="I82">
+        <v>-0.06819235065860502</v>
+      </c>
+      <c r="J82">
+        <v>-0.01760230878943579</v>
+      </c>
+      <c r="K82">
+        <v>0.01898675291288159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05401817040043481</v>
+        <v>0.07609625829820989</v>
       </c>
       <c r="C83">
-        <v>-0.0195881145034917</v>
+        <v>0.03435039103361812</v>
       </c>
       <c r="D83">
-        <v>0.0750168840504413</v>
+        <v>-0.02312695702356208</v>
       </c>
       <c r="E83">
-        <v>0.01407516322897126</v>
+        <v>0.02447857509030811</v>
       </c>
       <c r="F83">
-        <v>-0.09558708573384164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.08936130352620011</v>
+      </c>
+      <c r="G83">
+        <v>0.03110904501946498</v>
+      </c>
+      <c r="H83">
+        <v>-0.04997489299674971</v>
+      </c>
+      <c r="I83">
+        <v>0.07987139840596393</v>
+      </c>
+      <c r="J83">
+        <v>-0.04107567581584724</v>
+      </c>
+      <c r="K83">
+        <v>0.04001780500068303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05210995708780851</v>
+        <v>0.03312363408126685</v>
       </c>
       <c r="C84">
-        <v>-0.01641226669401191</v>
+        <v>0.04701311288920271</v>
       </c>
       <c r="D84">
-        <v>-0.04847713658049552</v>
+        <v>-0.008421287716322126</v>
       </c>
       <c r="E84">
-        <v>-0.02923967736796214</v>
+        <v>-0.03874235966786314</v>
       </c>
       <c r="F84">
-        <v>-0.01879679859222157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05782711472824632</v>
+      </c>
+      <c r="G84">
+        <v>0.04595286094149423</v>
+      </c>
+      <c r="H84">
+        <v>0.02149953055330583</v>
+      </c>
+      <c r="I84">
+        <v>0.1126916506207697</v>
+      </c>
+      <c r="J84">
+        <v>-0.05131820279831614</v>
+      </c>
+      <c r="K84">
+        <v>0.1103934719546305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1107978473538624</v>
+        <v>0.1187920945834413</v>
       </c>
       <c r="C85">
-        <v>-0.03272865936401334</v>
+        <v>0.03744154206573638</v>
       </c>
       <c r="D85">
-        <v>-0.02940999059224322</v>
+        <v>0.03118333525999639</v>
       </c>
       <c r="E85">
-        <v>0.05853355299982896</v>
+        <v>0.03514715837525695</v>
       </c>
       <c r="F85">
-        <v>0.01336840518987818</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.009607271100091493</v>
+      </c>
+      <c r="G85">
+        <v>-0.01732270705944903</v>
+      </c>
+      <c r="H85">
+        <v>0.1946694753580379</v>
+      </c>
+      <c r="I85">
+        <v>-0.03169677494856427</v>
+      </c>
+      <c r="J85">
+        <v>0.06426079877447052</v>
+      </c>
+      <c r="K85">
+        <v>-0.02462163122800215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.07836242794309554</v>
+        <v>0.07081511187748568</v>
       </c>
       <c r="C86">
-        <v>-0.06835434993894836</v>
+        <v>0.03498631324025029</v>
       </c>
       <c r="D86">
-        <v>-0.03036375258401396</v>
+        <v>-0.01037905933787292</v>
       </c>
       <c r="E86">
-        <v>0.01107955512873926</v>
+        <v>0.01805113779609897</v>
       </c>
       <c r="F86">
-        <v>0.03321613472193583</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03427985724812808</v>
+      </c>
+      <c r="G86">
+        <v>0.003707787115738176</v>
+      </c>
+      <c r="H86">
+        <v>-0.02508103152228868</v>
+      </c>
+      <c r="I86">
+        <v>-0.007244800265411814</v>
+      </c>
+      <c r="J86">
+        <v>0.004248306790499</v>
+      </c>
+      <c r="K86">
+        <v>0.03505040567006537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1289160303818356</v>
+        <v>0.128312218368982</v>
       </c>
       <c r="C87">
-        <v>-0.06394790656000311</v>
+        <v>0.07199980422327226</v>
       </c>
       <c r="D87">
-        <v>-0.0632130959522436</v>
+        <v>0.00311658970094553</v>
       </c>
       <c r="E87">
-        <v>0.04150929406267307</v>
+        <v>0.02218445915734773</v>
       </c>
       <c r="F87">
-        <v>0.1902251249157434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1014299030116991</v>
+      </c>
+      <c r="G87">
+        <v>-0.1978996616671041</v>
+      </c>
+      <c r="H87">
+        <v>-0.09515285391803181</v>
+      </c>
+      <c r="I87">
+        <v>-0.03996737344162569</v>
+      </c>
+      <c r="J87">
+        <v>-0.02824220733729276</v>
+      </c>
+      <c r="K87">
+        <v>0.04459552323301183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.05808047841864351</v>
+        <v>0.06508891429255548</v>
       </c>
       <c r="C88">
-        <v>-0.02307896516172273</v>
+        <v>0.03797292453944549</v>
       </c>
       <c r="D88">
-        <v>-0.02349263928263714</v>
+        <v>0.03700588251126487</v>
       </c>
       <c r="E88">
-        <v>0.009321923186792055</v>
+        <v>0.006247042607940317</v>
       </c>
       <c r="F88">
-        <v>0.003287465242828885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.00212795820685642</v>
+      </c>
+      <c r="G88">
+        <v>-0.01453987656560432</v>
+      </c>
+      <c r="H88">
+        <v>0.01872582896315701</v>
+      </c>
+      <c r="I88">
+        <v>0.03373985046858818</v>
+      </c>
+      <c r="J88">
+        <v>-0.04117083490641341</v>
+      </c>
+      <c r="K88">
+        <v>0.02196503313039889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.0832307624018836</v>
+        <v>0.1523691981831391</v>
       </c>
       <c r="C89">
-        <v>0.32494032312904</v>
+        <v>-0.3745731525036744</v>
       </c>
       <c r="D89">
-        <v>0.03345797283335646</v>
+        <v>-0.01198905376944717</v>
       </c>
       <c r="E89">
-        <v>0.109522035147733</v>
+        <v>0.08761332691373819</v>
       </c>
       <c r="F89">
-        <v>0.04350970920781234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01360521707937664</v>
+      </c>
+      <c r="G89">
+        <v>0.03719274016333986</v>
+      </c>
+      <c r="H89">
+        <v>-0.01254824425183922</v>
+      </c>
+      <c r="I89">
+        <v>0.05397268307995912</v>
+      </c>
+      <c r="J89">
+        <v>-0.08850535404979462</v>
+      </c>
+      <c r="K89">
+        <v>-0.01760048704285647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06814824761294057</v>
+        <v>0.1053167870804505</v>
       </c>
       <c r="C90">
-        <v>0.2878310384751023</v>
+        <v>-0.2803099569124399</v>
       </c>
       <c r="D90">
-        <v>0.05757022687747434</v>
+        <v>-0.03474588619492064</v>
       </c>
       <c r="E90">
-        <v>0.050096236515051</v>
+        <v>0.03921380722868689</v>
       </c>
       <c r="F90">
-        <v>0.06451926756702368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.004338358632231079</v>
+      </c>
+      <c r="G90">
+        <v>-0.02997392072760352</v>
+      </c>
+      <c r="H90">
+        <v>-0.03521715694544357</v>
+      </c>
+      <c r="I90">
+        <v>0.05571842471373255</v>
+      </c>
+      <c r="J90">
+        <v>-0.05793221428812907</v>
+      </c>
+      <c r="K90">
+        <v>-0.01138373889823343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1021941137487805</v>
+        <v>0.08728901642307325</v>
       </c>
       <c r="C91">
-        <v>-0.01108317051664799</v>
+        <v>0.03822231864980379</v>
       </c>
       <c r="D91">
-        <v>-0.03214227825750191</v>
+        <v>0.006531454024540219</v>
       </c>
       <c r="E91">
-        <v>0.01313570286854783</v>
+        <v>-0.002010204548809941</v>
       </c>
       <c r="F91">
-        <v>-0.01164379679395789</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.004313176463299618</v>
+      </c>
+      <c r="G91">
+        <v>0.03262135588641725</v>
+      </c>
+      <c r="H91">
+        <v>0.08314144097820522</v>
+      </c>
+      <c r="I91">
+        <v>-0.02489946916577064</v>
+      </c>
+      <c r="J91">
+        <v>0.02697631500638388</v>
+      </c>
+      <c r="K91">
+        <v>-0.01452743081903089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.05364255643615447</v>
+        <v>0.1076065027591323</v>
       </c>
       <c r="C92">
-        <v>0.3342763128411597</v>
+        <v>-0.3364528939216097</v>
       </c>
       <c r="D92">
-        <v>0.01442670552125311</v>
+        <v>-0.01507630363407552</v>
       </c>
       <c r="E92">
-        <v>0.08364685065003981</v>
+        <v>0.04950802186326043</v>
       </c>
       <c r="F92">
-        <v>0.01332616927797483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.03629557157426008</v>
+      </c>
+      <c r="G92">
+        <v>0.02240832766719244</v>
+      </c>
+      <c r="H92">
+        <v>0.01993948284125653</v>
+      </c>
+      <c r="I92">
+        <v>0.01997143736927543</v>
+      </c>
+      <c r="J92">
+        <v>-0.0262945768240702</v>
+      </c>
+      <c r="K92">
+        <v>0.004620919369460905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.05337302263872603</v>
+        <v>0.1099104257548541</v>
       </c>
       <c r="C93">
-        <v>0.2923699955645337</v>
+        <v>-0.3099589365270715</v>
       </c>
       <c r="D93">
-        <v>0.02469843531594547</v>
+        <v>-0.003853169952418771</v>
       </c>
       <c r="E93">
-        <v>0.0507119859348646</v>
+        <v>0.02417203314577391</v>
       </c>
       <c r="F93">
-        <v>0.0353185699957608</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.005278354961360868</v>
+      </c>
+      <c r="G93">
+        <v>0.002941808396084248</v>
+      </c>
+      <c r="H93">
+        <v>-0.01414712855199666</v>
+      </c>
+      <c r="I93">
+        <v>0.001135091931068105</v>
+      </c>
+      <c r="J93">
+        <v>-0.0007712142576191491</v>
+      </c>
+      <c r="K93">
+        <v>0.03200841607998212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1269963617106689</v>
+        <v>0.1205097154642397</v>
       </c>
       <c r="C94">
-        <v>-0.05778510226996613</v>
+        <v>0.06013066492292419</v>
       </c>
       <c r="D94">
-        <v>-0.03207676578394276</v>
+        <v>0.01043910119917757</v>
       </c>
       <c r="E94">
-        <v>0.03346870585896471</v>
+        <v>0.02373647907951208</v>
       </c>
       <c r="F94">
-        <v>-0.02044346201479007</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.00648368860328917</v>
+      </c>
+      <c r="G94">
+        <v>0.06072598586380015</v>
+      </c>
+      <c r="H94">
+        <v>0.1230570195980487</v>
+      </c>
+      <c r="I94">
+        <v>-0.01741551707989655</v>
+      </c>
+      <c r="J94">
+        <v>0.0250117101878073</v>
+      </c>
+      <c r="K94">
+        <v>-0.02039794683569592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1234612791506015</v>
+        <v>0.134690627284946</v>
       </c>
       <c r="C95">
-        <v>-0.08158925557986761</v>
+        <v>0.07057172537774763</v>
       </c>
       <c r="D95">
-        <v>-0.07751048334246737</v>
+        <v>0.04035772838225877</v>
       </c>
       <c r="E95">
-        <v>0.08448082843821594</v>
+        <v>0.05273908270568362</v>
       </c>
       <c r="F95">
-        <v>-0.03787061529481308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06103484270154817</v>
+      </c>
+      <c r="G95">
+        <v>-0.02356584312673524</v>
+      </c>
+      <c r="H95">
+        <v>-0.1230923269613857</v>
+      </c>
+      <c r="I95">
+        <v>0.05998932658238391</v>
+      </c>
+      <c r="J95">
+        <v>-0.02423176355922725</v>
+      </c>
+      <c r="K95">
+        <v>-0.01073517683670565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2500431471480801</v>
+        <v>0.1884056857530249</v>
       </c>
       <c r="C97">
-        <v>0.142600782222392</v>
+        <v>-0.0371406767437301</v>
       </c>
       <c r="D97">
-        <v>-0.02906678840789793</v>
+        <v>-0.2718778774293608</v>
       </c>
       <c r="E97">
-        <v>-0.8898240612079262</v>
+        <v>-0.8966825446740413</v>
       </c>
       <c r="F97">
-        <v>0.008439381774628588</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.04370821747295189</v>
+      </c>
+      <c r="G97">
+        <v>-0.04213599652476731</v>
+      </c>
+      <c r="H97">
+        <v>-0.07006657084291378</v>
+      </c>
+      <c r="I97">
+        <v>0.03982895689690721</v>
+      </c>
+      <c r="J97">
+        <v>-0.06805577619572852</v>
+      </c>
+      <c r="K97">
+        <v>-0.04697326078507023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2894489231165931</v>
+        <v>0.2843373145507063</v>
       </c>
       <c r="C98">
-        <v>-0.04558474938888318</v>
+        <v>0.10025807005719</v>
       </c>
       <c r="D98">
-        <v>0.008406532168692733</v>
+        <v>0.1111585422936564</v>
       </c>
       <c r="E98">
-        <v>0.08881547783686129</v>
+        <v>-0.04243154878577894</v>
       </c>
       <c r="F98">
-        <v>-0.5610740217942713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2800073724030211</v>
+      </c>
+      <c r="G98">
+        <v>0.2972531510028946</v>
+      </c>
+      <c r="H98">
+        <v>-0.2940715970802491</v>
+      </c>
+      <c r="I98">
+        <v>-0.2090853892871402</v>
+      </c>
+      <c r="J98">
+        <v>0.08152822543206603</v>
+      </c>
+      <c r="K98">
+        <v>0.6363345405962452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2435442283906596</v>
+        <v>0.151960544871359</v>
       </c>
       <c r="C99">
-        <v>-0.1243005925107667</v>
+        <v>0.09216313218720051</v>
       </c>
       <c r="D99">
-        <v>0.9074587490006987</v>
+        <v>-0.6281550350669033</v>
       </c>
       <c r="E99">
-        <v>0.001673289877186875</v>
+        <v>0.1904097231678951</v>
       </c>
       <c r="F99">
-        <v>-0.0940512363993557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.6272783986281776</v>
+      </c>
+      <c r="G99">
+        <v>-0.04515327952696638</v>
+      </c>
+      <c r="H99">
+        <v>0.1471321643017634</v>
+      </c>
+      <c r="I99">
+        <v>0.07748491843419379</v>
+      </c>
+      <c r="J99">
+        <v>0.06130779116260124</v>
+      </c>
+      <c r="K99">
+        <v>-0.05660692838953365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05651233668852632</v>
+        <v>0.0535278959629086</v>
       </c>
       <c r="C101">
-        <v>0.005267884536976555</v>
+        <v>0.01034016745895615</v>
       </c>
       <c r="D101">
-        <v>-0.0291906207956305</v>
+        <v>0.01666068331088874</v>
       </c>
       <c r="E101">
-        <v>0.02303355609132267</v>
+        <v>0.02219205909415945</v>
       </c>
       <c r="F101">
-        <v>0.03387360597883436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03595103001836051</v>
+      </c>
+      <c r="G101">
+        <v>-0.02537799800573394</v>
+      </c>
+      <c r="H101">
+        <v>0.05901949153232831</v>
+      </c>
+      <c r="I101">
+        <v>0.03807446791492954</v>
+      </c>
+      <c r="J101">
+        <v>0.006252352990859238</v>
+      </c>
+      <c r="K101">
+        <v>0.03859680522455428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
